--- a/BaseDemonstracao.xlsx
+++ b/BaseDemonstracao.xlsx
@@ -11,11 +11,10 @@
   </sheets>
   <definedNames>
     <definedName name="_FilterDatabase_0" localSheetId="0">Vendas!$B$1:$J$442</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Vendas!$B$1:$J$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vendas!$A$1:$K$583</definedName>
     <definedName name="Vendas1" localSheetId="0">Vendas!$B$1:$J$305</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="73">
   <si>
     <t>Cod</t>
   </si>
@@ -226,6 +225,24 @@
   </si>
   <si>
     <t>Campinas</t>
+  </si>
+  <si>
+    <t>SP Rações - Jundiaí</t>
+  </si>
+  <si>
+    <t>Jundiaí</t>
+  </si>
+  <si>
+    <t>SGA Rações</t>
+  </si>
+  <si>
+    <t>São Gonçalo do Amarante</t>
+  </si>
+  <si>
+    <t>Leo Rações</t>
+  </si>
+  <si>
+    <t>Itaitinga</t>
   </si>
 </sst>
 </file>
@@ -577,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K554"/>
+  <dimension ref="A1:K583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B555" sqref="B555"/>
+    <sheetView tabSelected="1" topLeftCell="A550" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L588" sqref="L588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -739,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -883,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -991,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1063,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1243,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1351,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1423,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1459,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1603,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1783,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="K37">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2179,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2287,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2323,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="K48">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2467,7 +2484,7 @@
         <v>14</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2575,7 +2592,7 @@
         <v>14</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2611,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="K56">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2755,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2863,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2899,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2935,7 +2952,7 @@
         <v>14</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,7 +2988,7 @@
         <v>14</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3007,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3223,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3259,7 +3276,7 @@
         <v>21</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3331,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3367,7 +3384,7 @@
         <v>14</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3475,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="K80">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3583,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3655,7 +3672,7 @@
         <v>18</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3835,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4051,7 +4068,7 @@
         <v>14</v>
       </c>
       <c r="K96">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4231,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4267,7 +4284,7 @@
         <v>14</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4411,7 +4428,7 @@
         <v>14</v>
       </c>
       <c r="K106">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4519,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4555,7 +4572,7 @@
         <v>18</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4699,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4807,7 +4824,7 @@
         <v>29</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4843,7 +4860,7 @@
         <v>29</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4987,7 +5004,7 @@
         <v>14</v>
       </c>
       <c r="K122">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5095,7 +5112,7 @@
         <v>14</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5455,7 +5472,7 @@
         <v>14</v>
       </c>
       <c r="K135">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5527,7 +5544,7 @@
         <v>26</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5563,7 +5580,7 @@
         <v>14</v>
       </c>
       <c r="K138">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5707,7 +5724,7 @@
         <v>14</v>
       </c>
       <c r="K142">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5815,7 +5832,7 @@
         <v>26</v>
       </c>
       <c r="K145">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5887,7 +5904,7 @@
         <v>14</v>
       </c>
       <c r="K147">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5923,7 +5940,7 @@
         <v>21</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6067,7 +6084,7 @@
         <v>14</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6175,7 +6192,7 @@
         <v>14</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6463,7 +6480,7 @@
         <v>14</v>
       </c>
       <c r="K163">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6516,7 @@
         <v>14</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6643,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="K168">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6751,7 +6768,7 @@
         <v>14</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6787,7 +6804,7 @@
         <v>14</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6931,7 +6948,7 @@
         <v>14</v>
       </c>
       <c r="K176">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7039,7 +7056,7 @@
         <v>29</v>
       </c>
       <c r="K179">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7075,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7219,7 +7236,7 @@
         <v>18</v>
       </c>
       <c r="K184">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7327,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="K187">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7399,7 +7416,7 @@
         <v>14</v>
       </c>
       <c r="K189">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7435,7 +7452,7 @@
         <v>14</v>
       </c>
       <c r="K190">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7579,7 +7596,7 @@
         <v>14</v>
       </c>
       <c r="K194">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7687,7 +7704,7 @@
         <v>33</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7759,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="K199">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7795,7 +7812,7 @@
         <v>29</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -7831,7 +7848,7 @@
         <v>31</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -7939,7 +7956,7 @@
         <v>14</v>
       </c>
       <c r="K204">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8047,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,7 +8100,7 @@
         <v>14</v>
       </c>
       <c r="K208">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8155,7 +8172,7 @@
         <v>14</v>
       </c>
       <c r="K210">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8263,7 +8280,7 @@
         <v>26</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8299,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="K214">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8371,7 +8388,7 @@
         <v>14</v>
       </c>
       <c r="K216">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8479,7 +8496,7 @@
         <v>14</v>
       </c>
       <c r="K219">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8515,7 +8532,7 @@
         <v>14</v>
       </c>
       <c r="K220">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8731,7 +8748,7 @@
         <v>37</v>
       </c>
       <c r="K226">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -8875,7 +8892,7 @@
         <v>14</v>
       </c>
       <c r="K230">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -8983,7 +9000,7 @@
         <v>14</v>
       </c>
       <c r="K233">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9019,7 +9036,7 @@
         <v>14</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9163,7 +9180,7 @@
         <v>14</v>
       </c>
       <c r="K238">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9271,7 +9288,7 @@
         <v>26</v>
       </c>
       <c r="K241">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9307,7 +9324,7 @@
         <v>14</v>
       </c>
       <c r="K242">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9451,7 +9468,7 @@
         <v>14</v>
       </c>
       <c r="K246">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9559,7 +9576,7 @@
         <v>14</v>
       </c>
       <c r="K249">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9631,7 +9648,7 @@
         <v>14</v>
       </c>
       <c r="K251">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9667,7 +9684,7 @@
         <v>14</v>
       </c>
       <c r="K252">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9811,7 +9828,7 @@
         <v>14</v>
       </c>
       <c r="K256">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -9919,7 +9936,7 @@
         <v>21</v>
       </c>
       <c r="K259">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -9991,7 +10008,7 @@
         <v>14</v>
       </c>
       <c r="K261">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10027,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="K262">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10171,7 +10188,7 @@
         <v>39</v>
       </c>
       <c r="K266">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10279,7 +10296,7 @@
         <v>14</v>
       </c>
       <c r="K269">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10351,7 +10368,7 @@
         <v>14</v>
       </c>
       <c r="K271">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10387,7 +10404,7 @@
         <v>14</v>
       </c>
       <c r="K272">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10531,7 +10548,7 @@
         <v>26</v>
       </c>
       <c r="K276">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10639,7 +10656,7 @@
         <v>21</v>
       </c>
       <c r="K279">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10711,7 +10728,7 @@
         <v>18</v>
       </c>
       <c r="K281">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10747,7 +10764,7 @@
         <v>14</v>
       </c>
       <c r="K282">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -10927,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="K287">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -10963,7 +10980,7 @@
         <v>14</v>
       </c>
       <c r="K288">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -10999,7 +11016,7 @@
         <v>42</v>
       </c>
       <c r="K289">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -11107,7 +11124,7 @@
         <v>14</v>
       </c>
       <c r="K292">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -11215,7 +11232,7 @@
         <v>14</v>
       </c>
       <c r="K295">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -11251,7 +11268,7 @@
         <v>14</v>
       </c>
       <c r="K296">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -11395,7 +11412,7 @@
         <v>14</v>
       </c>
       <c r="K300">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -11467,7 +11484,7 @@
         <v>45</v>
       </c>
       <c r="K302">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -11503,7 +11520,7 @@
         <v>14</v>
       </c>
       <c r="K303">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -11539,7 +11556,7 @@
         <v>33</v>
       </c>
       <c r="K304">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -11683,7 +11700,7 @@
         <v>14</v>
       </c>
       <c r="K308">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -11791,7 +11808,7 @@
         <v>21</v>
       </c>
       <c r="K311">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -11863,7 +11880,7 @@
         <v>14</v>
       </c>
       <c r="K313">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11916,7 @@
         <v>14</v>
       </c>
       <c r="K314">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -12007,7 +12024,7 @@
         <v>26</v>
       </c>
       <c r="K317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -12043,7 +12060,7 @@
         <v>14</v>
       </c>
       <c r="K318">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -12151,7 +12168,7 @@
         <v>14</v>
       </c>
       <c r="K321">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -12223,7 +12240,7 @@
         <v>14</v>
       </c>
       <c r="K323">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -12259,7 +12276,7 @@
         <v>36</v>
       </c>
       <c r="K324">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -12295,7 +12312,7 @@
         <v>37</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -12403,7 +12420,7 @@
         <v>14</v>
       </c>
       <c r="K328">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -12475,7 +12492,7 @@
         <v>53</v>
       </c>
       <c r="K330">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -12619,7 +12636,7 @@
         <v>14</v>
       </c>
       <c r="K334">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -12691,7 +12708,7 @@
         <v>50</v>
       </c>
       <c r="K336">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -12763,7 +12780,7 @@
         <v>14</v>
       </c>
       <c r="K338">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -12835,7 +12852,7 @@
         <v>36</v>
       </c>
       <c r="K340">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -12871,7 +12888,7 @@
         <v>37</v>
       </c>
       <c r="K341">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -12907,7 +12924,7 @@
         <v>53</v>
       </c>
       <c r="K342">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -12943,7 +12960,7 @@
         <v>14</v>
       </c>
       <c r="K343">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -12979,7 +12996,7 @@
         <v>14</v>
       </c>
       <c r="K344">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -13015,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="K345">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -13051,7 +13068,7 @@
         <v>14</v>
       </c>
       <c r="K346">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -13087,7 +13104,7 @@
         <v>14</v>
       </c>
       <c r="K347">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -13123,7 +13140,7 @@
         <v>26</v>
       </c>
       <c r="K348">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -13159,7 +13176,7 @@
         <v>14</v>
       </c>
       <c r="K349">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -13195,7 +13212,7 @@
         <v>21</v>
       </c>
       <c r="K350">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -13231,7 +13248,7 @@
         <v>18</v>
       </c>
       <c r="K351">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -13267,7 +13284,7 @@
         <v>14</v>
       </c>
       <c r="K352">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -13303,7 +13320,7 @@
         <v>14</v>
       </c>
       <c r="K353">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -13339,7 +13356,7 @@
         <v>14</v>
       </c>
       <c r="K354">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -13375,7 +13392,7 @@
         <v>14</v>
       </c>
       <c r="K355">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -13447,7 +13464,7 @@
         <v>39</v>
       </c>
       <c r="K357">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -13483,7 +13500,7 @@
         <v>39</v>
       </c>
       <c r="K358">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -13519,7 +13536,7 @@
         <v>21</v>
       </c>
       <c r="K359">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -13555,7 +13572,7 @@
         <v>14</v>
       </c>
       <c r="K360">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -13591,7 +13608,7 @@
         <v>14</v>
       </c>
       <c r="K361">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -13627,7 +13644,7 @@
         <v>14</v>
       </c>
       <c r="K362">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -13663,7 +13680,7 @@
         <v>14</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -13735,7 +13752,7 @@
         <v>39</v>
       </c>
       <c r="K365">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -13771,7 +13788,7 @@
         <v>29</v>
       </c>
       <c r="K366">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -13807,7 +13824,7 @@
         <v>26</v>
       </c>
       <c r="K367">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -13843,7 +13860,7 @@
         <v>18</v>
       </c>
       <c r="K368">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -13879,7 +13896,7 @@
         <v>14</v>
       </c>
       <c r="K369">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -13915,7 +13932,7 @@
         <v>21</v>
       </c>
       <c r="K370">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -13951,7 +13968,7 @@
         <v>39</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -14023,7 +14040,7 @@
         <v>14</v>
       </c>
       <c r="K373">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -14059,7 +14076,7 @@
         <v>29</v>
       </c>
       <c r="K374">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -14095,7 +14112,7 @@
         <v>26</v>
       </c>
       <c r="K375">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -14131,7 +14148,7 @@
         <v>18</v>
       </c>
       <c r="K376">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -14167,7 +14184,7 @@
         <v>26</v>
       </c>
       <c r="K377">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -14203,7 +14220,7 @@
         <v>18</v>
       </c>
       <c r="K378">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -14275,7 +14292,7 @@
         <v>42</v>
       </c>
       <c r="K380">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -14383,7 +14400,7 @@
         <v>14</v>
       </c>
       <c r="K383">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -14455,7 +14472,7 @@
         <v>14</v>
       </c>
       <c r="K385">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -14491,7 +14508,7 @@
         <v>14</v>
       </c>
       <c r="K386">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -14527,7 +14544,7 @@
         <v>14</v>
       </c>
       <c r="K387">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -14563,7 +14580,7 @@
         <v>21</v>
       </c>
       <c r="K388">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -14599,7 +14616,7 @@
         <v>39</v>
       </c>
       <c r="K389">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -14635,7 +14652,7 @@
         <v>29</v>
       </c>
       <c r="K390">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -14671,7 +14688,7 @@
         <v>14</v>
       </c>
       <c r="K391">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -14815,7 +14832,7 @@
         <v>33</v>
       </c>
       <c r="K395">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -14851,7 +14868,7 @@
         <v>47</v>
       </c>
       <c r="K396">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -14887,7 +14904,7 @@
         <v>14</v>
       </c>
       <c r="K397">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -14923,7 +14940,7 @@
         <v>14</v>
       </c>
       <c r="K398">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
@@ -14959,7 +14976,7 @@
         <v>14</v>
       </c>
       <c r="K399">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -14995,7 +15012,7 @@
         <v>14</v>
       </c>
       <c r="K400">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -15031,7 +15048,7 @@
         <v>14</v>
       </c>
       <c r="K401">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -15103,7 +15120,7 @@
         <v>14</v>
       </c>
       <c r="K403">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -15139,7 +15156,7 @@
         <v>14</v>
       </c>
       <c r="K404">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -15175,7 +15192,7 @@
         <v>14</v>
       </c>
       <c r="K405">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -15211,7 +15228,7 @@
         <v>14</v>
       </c>
       <c r="K406">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -15247,7 +15264,7 @@
         <v>21</v>
       </c>
       <c r="K407">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -15283,7 +15300,7 @@
         <v>26</v>
       </c>
       <c r="K408">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -15319,7 +15336,7 @@
         <v>14</v>
       </c>
       <c r="K409">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -15355,7 +15372,7 @@
         <v>21</v>
       </c>
       <c r="K410">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -15391,7 +15408,7 @@
         <v>50</v>
       </c>
       <c r="K411">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -15427,7 +15444,7 @@
         <v>14</v>
       </c>
       <c r="K412">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -15679,7 +15696,7 @@
         <v>14</v>
       </c>
       <c r="K419">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -15715,7 +15732,7 @@
         <v>14</v>
       </c>
       <c r="K420">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -15751,7 +15768,7 @@
         <v>53</v>
       </c>
       <c r="K421">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -15859,7 +15876,7 @@
         <v>14</v>
       </c>
       <c r="K424">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -15967,7 +15984,7 @@
         <v>14</v>
       </c>
       <c r="K427">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -16003,7 +16020,7 @@
         <v>26</v>
       </c>
       <c r="K428">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -16147,7 +16164,7 @@
         <v>14</v>
       </c>
       <c r="K432">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -16255,7 +16272,7 @@
         <v>36</v>
       </c>
       <c r="K435">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -16291,7 +16308,7 @@
         <v>37</v>
       </c>
       <c r="K436">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -16327,7 +16344,7 @@
         <v>53</v>
       </c>
       <c r="K437">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -16363,7 +16380,7 @@
         <v>14</v>
       </c>
       <c r="K438">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -16507,7 +16524,7 @@
         <v>14</v>
       </c>
       <c r="K442">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -16579,7 +16596,7 @@
         <v>26</v>
       </c>
       <c r="K444">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -16615,7 +16632,7 @@
         <v>14</v>
       </c>
       <c r="K445">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -16687,7 +16704,7 @@
         <v>50</v>
       </c>
       <c r="K447">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -16723,7 +16740,7 @@
         <v>14</v>
       </c>
       <c r="K448">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -16867,7 +16884,7 @@
         <v>14</v>
       </c>
       <c r="K452">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -17047,7 +17064,7 @@
         <v>33</v>
       </c>
       <c r="K457">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -17083,7 +17100,7 @@
         <v>47</v>
       </c>
       <c r="K458">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
@@ -17227,7 +17244,7 @@
         <v>14</v>
       </c>
       <c r="K462">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -17335,7 +17352,7 @@
         <v>14</v>
       </c>
       <c r="K465">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
@@ -17407,7 +17424,7 @@
         <v>14</v>
       </c>
       <c r="K467">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -17443,7 +17460,7 @@
         <v>14</v>
       </c>
       <c r="K468">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -17623,7 +17640,7 @@
         <v>14</v>
       </c>
       <c r="K473">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
@@ -17659,7 +17676,7 @@
         <v>26</v>
       </c>
       <c r="K474">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
@@ -17803,7 +17820,7 @@
         <v>21</v>
       </c>
       <c r="K478">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -17911,7 +17928,7 @@
         <v>14</v>
       </c>
       <c r="K481">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -17947,7 +17964,7 @@
         <v>14</v>
       </c>
       <c r="K482">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
@@ -17983,7 +18000,7 @@
         <v>45</v>
       </c>
       <c r="K483">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
@@ -18091,7 +18108,7 @@
         <v>47</v>
       </c>
       <c r="K486">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
@@ -18199,7 +18216,7 @@
         <v>14</v>
       </c>
       <c r="K489">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
@@ -18379,7 +18396,7 @@
         <v>14</v>
       </c>
       <c r="K494">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
@@ -18487,7 +18504,7 @@
         <v>14</v>
       </c>
       <c r="K497">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
@@ -18559,7 +18576,7 @@
         <v>39</v>
       </c>
       <c r="K499">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
@@ -18595,7 +18612,7 @@
         <v>21</v>
       </c>
       <c r="K500">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
@@ -18739,7 +18756,7 @@
         <v>14</v>
       </c>
       <c r="K504">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -18847,7 +18864,7 @@
         <v>29</v>
       </c>
       <c r="K507">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
@@ -18919,7 +18936,7 @@
         <v>14</v>
       </c>
       <c r="K509">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -18955,7 +18972,7 @@
         <v>14</v>
       </c>
       <c r="K510">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -19089,7 +19106,7 @@
         <v>0.34</v>
       </c>
       <c r="H514" s="5">
-        <f t="shared" ref="H514:H577" si="8">E514*G514</f>
+        <f t="shared" ref="H514:H556" si="8">E514*G514</f>
         <v>6800.0000000000009</v>
       </c>
       <c r="I514" t="s">
@@ -19099,7 +19116,7 @@
         <v>18</v>
       </c>
       <c r="K514">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
@@ -19207,7 +19224,7 @@
         <v>14</v>
       </c>
       <c r="K517">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -19279,7 +19296,7 @@
         <v>14</v>
       </c>
       <c r="K519">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
@@ -19315,7 +19332,7 @@
         <v>14</v>
       </c>
       <c r="K520">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -19459,7 +19476,7 @@
         <v>14</v>
       </c>
       <c r="K524">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -19567,7 +19584,7 @@
         <v>14</v>
       </c>
       <c r="K527">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
@@ -19603,7 +19620,7 @@
         <v>14</v>
       </c>
       <c r="K528">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
@@ -19639,7 +19656,7 @@
         <v>14</v>
       </c>
       <c r="K529">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -19675,7 +19692,7 @@
         <v>14</v>
       </c>
       <c r="K530">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
@@ -19891,7 +19908,7 @@
         <v>62</v>
       </c>
       <c r="K536">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -19927,7 +19944,7 @@
         <v>64</v>
       </c>
       <c r="K537">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
@@ -19963,7 +19980,7 @@
         <v>66</v>
       </c>
       <c r="K538">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
@@ -19999,7 +20016,7 @@
         <v>62</v>
       </c>
       <c r="K539">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
@@ -20035,7 +20052,7 @@
         <v>64</v>
       </c>
       <c r="K540">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
@@ -20071,7 +20088,7 @@
         <v>66</v>
       </c>
       <c r="K541">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
@@ -20107,7 +20124,7 @@
         <v>62</v>
       </c>
       <c r="K542">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
@@ -20179,7 +20196,7 @@
         <v>66</v>
       </c>
       <c r="K544">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
@@ -20215,7 +20232,7 @@
         <v>62</v>
       </c>
       <c r="K545">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
@@ -20251,7 +20268,7 @@
         <v>64</v>
       </c>
       <c r="K546">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
@@ -20287,7 +20304,7 @@
         <v>66</v>
       </c>
       <c r="K547">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
@@ -20323,7 +20340,7 @@
         <v>66</v>
       </c>
       <c r="K548">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
@@ -20359,7 +20376,7 @@
         <v>62</v>
       </c>
       <c r="K549">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -20431,7 +20448,7 @@
         <v>66</v>
       </c>
       <c r="K551">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
@@ -20467,7 +20484,7 @@
         <v>62</v>
       </c>
       <c r="K552">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
@@ -20503,7 +20520,7 @@
         <v>64</v>
       </c>
       <c r="K553">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
@@ -20539,10 +20556,1055 @@
         <v>66</v>
       </c>
       <c r="K554">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C555" t="s">
+        <v>67</v>
+      </c>
+      <c r="D555">
+        <v>2</v>
+      </c>
+      <c r="E555">
+        <v>3000</v>
+      </c>
+      <c r="F555" t="s">
+        <v>12</v>
+      </c>
+      <c r="G555" s="5">
+        <v>2</v>
+      </c>
+      <c r="H555" s="5">
+        <f t="shared" si="8"/>
+        <v>6000</v>
+      </c>
+      <c r="I555" t="s">
+        <v>62</v>
+      </c>
+      <c r="J555" t="s">
+        <v>68</v>
+      </c>
+      <c r="K555">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C556" t="s">
+        <v>69</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>10000</v>
+      </c>
+      <c r="F556" t="s">
+        <v>12</v>
+      </c>
+      <c r="G556" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H556" s="5">
+        <f t="shared" si="8"/>
+        <v>3400.0000000000005</v>
+      </c>
+      <c r="I556" t="s">
+        <v>25</v>
+      </c>
+      <c r="J556" t="s">
+        <v>70</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1">
+        <v>43420</v>
+      </c>
+      <c r="C557" t="s">
+        <v>69</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>10000</v>
+      </c>
+      <c r="F557" t="s">
+        <v>12</v>
+      </c>
+      <c r="G557" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H557" s="5">
+        <f t="shared" ref="H557:H558" si="9">E557*G557</f>
+        <v>3400.0000000000005</v>
+      </c>
+      <c r="I557" t="s">
+        <v>25</v>
+      </c>
+      <c r="J557" t="s">
+        <v>70</v>
+      </c>
+      <c r="K557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558" s="1">
+        <v>43423</v>
+      </c>
+      <c r="C558" t="s">
+        <v>71</v>
+      </c>
+      <c r="D558">
+        <v>5</v>
+      </c>
+      <c r="E558">
+        <v>30000</v>
+      </c>
+      <c r="F558" t="s">
+        <v>12</v>
+      </c>
+      <c r="G558" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H558" s="5">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="I558" t="s">
+        <v>13</v>
+      </c>
+      <c r="J558" t="s">
+        <v>72</v>
+      </c>
+      <c r="K558">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559" s="1">
+        <v>43424</v>
+      </c>
+      <c r="C559" t="s">
+        <v>71</v>
+      </c>
+      <c r="D559">
+        <v>5</v>
+      </c>
+      <c r="E559">
+        <v>1000</v>
+      </c>
+      <c r="F559" t="s">
+        <v>12</v>
+      </c>
+      <c r="G559" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H559" s="5">
+        <f t="shared" ref="H559:H583" si="10">E559*G559</f>
+        <v>500</v>
+      </c>
+      <c r="I559" t="s">
+        <v>13</v>
+      </c>
+      <c r="J559" t="s">
+        <v>72</v>
+      </c>
+      <c r="K559">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C560" t="s">
+        <v>71</v>
+      </c>
+      <c r="D560">
+        <v>5</v>
+      </c>
+      <c r="E560">
+        <v>500</v>
+      </c>
+      <c r="F560" t="s">
+        <v>12</v>
+      </c>
+      <c r="G560" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H560" s="5">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="I560" t="s">
+        <v>13</v>
+      </c>
+      <c r="J560" t="s">
+        <v>72</v>
+      </c>
+      <c r="K560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561" s="1">
+        <v>43426</v>
+      </c>
+      <c r="C561" t="s">
+        <v>71</v>
+      </c>
+      <c r="D561">
+        <v>5</v>
+      </c>
+      <c r="E561">
+        <v>10000</v>
+      </c>
+      <c r="F561" t="s">
+        <v>12</v>
+      </c>
+      <c r="G561" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H561" s="5">
+        <f t="shared" si="10"/>
+        <v>5000</v>
+      </c>
+      <c r="I561" t="s">
+        <v>13</v>
+      </c>
+      <c r="J561" t="s">
+        <v>72</v>
+      </c>
+      <c r="K561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562" s="1">
+        <v>43427</v>
+      </c>
+      <c r="C562" t="s">
+        <v>71</v>
+      </c>
+      <c r="D562">
+        <v>5</v>
+      </c>
+      <c r="E562">
+        <v>2000</v>
+      </c>
+      <c r="F562" t="s">
+        <v>12</v>
+      </c>
+      <c r="G562" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H562" s="5">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="I562" t="s">
+        <v>13</v>
+      </c>
+      <c r="J562" t="s">
+        <v>72</v>
+      </c>
+      <c r="K562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563" s="1">
+        <v>43428</v>
+      </c>
+      <c r="C563" t="s">
+        <v>67</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="E563">
+        <v>2000</v>
+      </c>
+      <c r="F563" t="s">
+        <v>12</v>
+      </c>
+      <c r="G563" s="5">
+        <v>2</v>
+      </c>
+      <c r="H563" s="5">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="I563" t="s">
+        <v>62</v>
+      </c>
+      <c r="J563" t="s">
+        <v>68</v>
+      </c>
+      <c r="K563">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564" s="1">
+        <v>43428</v>
+      </c>
+      <c r="C564" t="s">
+        <v>24</v>
+      </c>
+      <c r="D564">
+        <v>4</v>
+      </c>
+      <c r="E564">
+        <v>50000</v>
+      </c>
+      <c r="F564" t="s">
+        <v>12</v>
+      </c>
+      <c r="G564" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H564" s="5">
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="I564" t="s">
+        <v>25</v>
+      </c>
+      <c r="J564" t="s">
+        <v>26</v>
+      </c>
+      <c r="K564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565" s="1">
+        <v>43430</v>
+      </c>
+      <c r="C565" t="s">
+        <v>16</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>30000</v>
+      </c>
+      <c r="F565" t="s">
+        <v>12</v>
+      </c>
+      <c r="G565" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H565" s="5">
+        <f t="shared" si="10"/>
+        <v>11400</v>
+      </c>
+      <c r="I565" t="s">
+        <v>13</v>
+      </c>
+      <c r="J565" t="s">
+        <v>14</v>
+      </c>
+      <c r="K565">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566" s="1">
+        <v>43431</v>
+      </c>
+      <c r="C566" t="s">
+        <v>20</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>35000</v>
+      </c>
+      <c r="F566" t="s">
+        <v>12</v>
+      </c>
+      <c r="G566" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H566" s="5">
+        <f t="shared" si="10"/>
+        <v>13300</v>
+      </c>
+      <c r="I566" t="s">
+        <v>13</v>
+      </c>
+      <c r="J566" t="s">
+        <v>21</v>
+      </c>
+      <c r="K566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567" s="1">
+        <v>43432</v>
+      </c>
+      <c r="C567" t="s">
+        <v>48</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>20000</v>
+      </c>
+      <c r="F567" t="s">
+        <v>12</v>
+      </c>
+      <c r="G567" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H567" s="5">
+        <f t="shared" si="10"/>
+        <v>7600</v>
+      </c>
+      <c r="I567" t="s">
+        <v>49</v>
+      </c>
+      <c r="J567" t="s">
+        <v>50</v>
+      </c>
+      <c r="K567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568" s="1">
+        <v>43433</v>
+      </c>
+      <c r="C568" t="s">
+        <v>15</v>
+      </c>
+      <c r="D568">
+        <v>2</v>
+      </c>
+      <c r="E568">
+        <v>1200</v>
+      </c>
+      <c r="F568" t="s">
+        <v>12</v>
+      </c>
+      <c r="G568" s="5">
+        <v>2</v>
+      </c>
+      <c r="H568" s="5">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+      <c r="I568" t="s">
+        <v>13</v>
+      </c>
+      <c r="J568" t="s">
+        <v>14</v>
+      </c>
+      <c r="K568">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569" s="1">
+        <v>43434</v>
+      </c>
+      <c r="C569" t="s">
+        <v>15</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>9000</v>
+      </c>
+      <c r="F569" t="s">
+        <v>12</v>
+      </c>
+      <c r="G569" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H569" s="5">
+        <f t="shared" si="10"/>
+        <v>3420</v>
+      </c>
+      <c r="I569" t="s">
+        <v>13</v>
+      </c>
+      <c r="J569" t="s">
+        <v>14</v>
+      </c>
+      <c r="K569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570" s="1">
+        <v>43435</v>
+      </c>
+      <c r="C570" t="s">
+        <v>16</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>4000</v>
+      </c>
+      <c r="F570" t="s">
+        <v>12</v>
+      </c>
+      <c r="G570" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H570" s="5">
+        <f t="shared" si="10"/>
+        <v>1520</v>
+      </c>
+      <c r="I570" t="s">
+        <v>13</v>
+      </c>
+      <c r="J570" t="s">
+        <v>14</v>
+      </c>
+      <c r="K570">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C571" t="s">
+        <v>34</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>9000</v>
+      </c>
+      <c r="F571" t="s">
+        <v>12</v>
+      </c>
+      <c r="G571" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H571" s="5">
+        <f t="shared" si="10"/>
+        <v>3420</v>
+      </c>
+      <c r="I571" t="s">
+        <v>35</v>
+      </c>
+      <c r="J571" t="s">
+        <v>36</v>
+      </c>
+      <c r="K571">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572" s="1">
+        <v>43437</v>
+      </c>
+      <c r="C572" t="s">
+        <v>34</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>3000</v>
+      </c>
+      <c r="F572" t="s">
+        <v>12</v>
+      </c>
+      <c r="G572" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H572" s="5">
+        <f t="shared" si="10"/>
+        <v>1140</v>
+      </c>
+      <c r="I572" t="s">
+        <v>35</v>
+      </c>
+      <c r="J572" t="s">
+        <v>37</v>
+      </c>
+      <c r="K572">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573" s="1">
+        <v>43438</v>
+      </c>
+      <c r="C573" t="s">
+        <v>15</v>
+      </c>
+      <c r="D573">
+        <v>2</v>
+      </c>
+      <c r="E573">
+        <v>2000</v>
+      </c>
+      <c r="F573" t="s">
+        <v>12</v>
+      </c>
+      <c r="G573" s="5">
+        <v>2</v>
+      </c>
+      <c r="H573" s="5">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="I573" t="s">
+        <v>13</v>
+      </c>
+      <c r="J573" t="s">
+        <v>14</v>
+      </c>
+      <c r="K573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574" s="1">
+        <v>43439</v>
+      </c>
+      <c r="C574" t="s">
+        <v>15</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>8000</v>
+      </c>
+      <c r="F574" t="s">
+        <v>12</v>
+      </c>
+      <c r="G574" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H574" s="5">
+        <f t="shared" si="10"/>
+        <v>3040</v>
+      </c>
+      <c r="I574" t="s">
+        <v>13</v>
+      </c>
+      <c r="J574" t="s">
+        <v>14</v>
+      </c>
+      <c r="K574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575" s="1">
+        <v>43440</v>
+      </c>
+      <c r="C575" t="s">
+        <v>16</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>2000</v>
+      </c>
+      <c r="F575" t="s">
+        <v>12</v>
+      </c>
+      <c r="G575" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H575" s="5">
+        <f t="shared" si="10"/>
+        <v>760</v>
+      </c>
+      <c r="I575" t="s">
+        <v>13</v>
+      </c>
+      <c r="J575" t="s">
+        <v>14</v>
+      </c>
+      <c r="K575">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576" s="1">
+        <v>43441</v>
+      </c>
+      <c r="C576" t="s">
+        <v>16</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>2500</v>
+      </c>
+      <c r="F576" t="s">
+        <v>12</v>
+      </c>
+      <c r="G576" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H576" s="5">
+        <f t="shared" si="10"/>
+        <v>950</v>
+      </c>
+      <c r="I576" t="s">
+        <v>13</v>
+      </c>
+      <c r="J576" t="s">
+        <v>14</v>
+      </c>
+      <c r="K576">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577" s="1">
+        <v>43442</v>
+      </c>
+      <c r="C577" t="s">
+        <v>51</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>20000</v>
+      </c>
+      <c r="F577" t="s">
+        <v>12</v>
+      </c>
+      <c r="G577" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H577" s="5">
+        <f t="shared" si="10"/>
+        <v>7600</v>
+      </c>
+      <c r="I577" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J577" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K577">
         <v>10</v>
       </c>
     </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578" s="1">
+        <v>43442</v>
+      </c>
+      <c r="C578" t="s">
+        <v>51</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>10000</v>
+      </c>
+      <c r="F578" t="s">
+        <v>12</v>
+      </c>
+      <c r="G578" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H578" s="5">
+        <f t="shared" si="10"/>
+        <v>3800</v>
+      </c>
+      <c r="I578" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J578" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K578">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579" s="1">
+        <v>43444</v>
+      </c>
+      <c r="C579" t="s">
+        <v>11</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>3000</v>
+      </c>
+      <c r="F579" t="s">
+        <v>12</v>
+      </c>
+      <c r="G579" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H579" s="5">
+        <f t="shared" si="10"/>
+        <v>1140</v>
+      </c>
+      <c r="I579" t="s">
+        <v>13</v>
+      </c>
+      <c r="J579" t="s">
+        <v>14</v>
+      </c>
+      <c r="K579">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580" s="1">
+        <v>43445</v>
+      </c>
+      <c r="C580" t="s">
+        <v>24</v>
+      </c>
+      <c r="D580">
+        <v>4</v>
+      </c>
+      <c r="E580">
+        <v>50500</v>
+      </c>
+      <c r="F580" t="s">
+        <v>12</v>
+      </c>
+      <c r="G580" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H580" s="5">
+        <f t="shared" si="10"/>
+        <v>20200</v>
+      </c>
+      <c r="I580" t="s">
+        <v>25</v>
+      </c>
+      <c r="J580" t="s">
+        <v>26</v>
+      </c>
+      <c r="K580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1">
+        <v>43445</v>
+      </c>
+      <c r="C581" t="s">
+        <v>16</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>35000</v>
+      </c>
+      <c r="F581" t="s">
+        <v>12</v>
+      </c>
+      <c r="G581" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H581" s="5">
+        <f t="shared" si="10"/>
+        <v>13300</v>
+      </c>
+      <c r="I581" t="s">
+        <v>13</v>
+      </c>
+      <c r="J581" t="s">
+        <v>14</v>
+      </c>
+      <c r="K581">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582" s="1">
+        <v>43445</v>
+      </c>
+      <c r="C582" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>25000</v>
+      </c>
+      <c r="F582" t="s">
+        <v>12</v>
+      </c>
+      <c r="G582" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H582" s="5">
+        <f t="shared" si="10"/>
+        <v>9500</v>
+      </c>
+      <c r="I582" t="s">
+        <v>13</v>
+      </c>
+      <c r="J582" t="s">
+        <v>21</v>
+      </c>
+      <c r="K582">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583" s="1">
+        <v>43445</v>
+      </c>
+      <c r="C583" t="s">
+        <v>48</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>20000</v>
+      </c>
+      <c r="F583" t="s">
+        <v>12</v>
+      </c>
+      <c r="G583" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H583" s="5">
+        <f t="shared" si="10"/>
+        <v>7600</v>
+      </c>
+      <c r="I583" t="s">
+        <v>49</v>
+      </c>
+      <c r="J583" t="s">
+        <v>50</v>
+      </c>
+      <c r="K583">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K583"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/BaseDemonstracao.xlsx
+++ b/BaseDemonstracao.xlsx
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L588" sqref="L588"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H88" s="5">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>3400.0000000000005</v>
       </c>
       <c r="I88" t="s">
         <v>13</v>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H89" s="5">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>8500</v>
+        <v>98500</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="H114" s="5">
         <f t="shared" si="1"/>
-        <v>2890</v>
+        <v>33490</v>
       </c>
       <c r="I114" t="s">
         <v>13</v>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E182">
-        <v>2000</v>
+        <v>180000</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="H182" s="5">
         <f t="shared" si="2"/>
-        <v>680</v>
+        <v>61200.000000000007</v>
       </c>
       <c r="I182" t="s">
         <v>13</v>
@@ -7361,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>500</v>
+        <v>9500</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="H188" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>19000</v>
       </c>
       <c r="I188" t="s">
         <v>13</v>
@@ -7433,7 +7433,7 @@
         <v>3</v>
       </c>
       <c r="E190">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="H190" s="5">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="I190" t="s">
         <v>13</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="E192">
-        <v>5000</v>
+        <v>55000</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="H192" s="5">
         <f t="shared" si="2"/>
-        <v>1700.0000000000002</v>
+        <v>18700</v>
       </c>
       <c r="I192" t="s">
         <v>13</v>
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="E193">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H193" s="5">
         <f t="shared" si="2"/>
-        <v>1360</v>
+        <v>4760</v>
       </c>
       <c r="I193" t="s">
         <v>13</v>
@@ -7649,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="E196">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H196" s="5">
         <f t="shared" si="3"/>
-        <v>8500</v>
+        <v>15300.000000000002</v>
       </c>
       <c r="I196" t="s">
         <v>13</v>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="E201">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="H201" s="5">
         <f t="shared" si="3"/>
-        <v>13600.000000000002</v>
+        <v>27200.000000000004</v>
       </c>
       <c r="I201" t="s">
         <v>13</v>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="E202">
-        <v>1000</v>
+        <v>21000</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="H202" s="5">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>7140.0000000000009</v>
       </c>
       <c r="I202" t="s">
         <v>13</v>
@@ -7901,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="F203" t="s">
         <v>12</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H203" s="5">
         <f t="shared" si="3"/>
-        <v>3400.0000000000005</v>
+        <v>23800</v>
       </c>
       <c r="I203" t="s">
         <v>13</v>
@@ -7937,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <v>500</v>
+        <v>18500</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H204" s="5">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>37000</v>
       </c>
       <c r="I204" t="s">
         <v>13</v>
@@ -8261,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="E213">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="H213" s="5">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="I213" t="s">
         <v>25</v>
@@ -8513,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="F220" t="s">
         <v>12</v>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="H220" s="5">
         <f t="shared" si="3"/>
-        <v>49000</v>
+        <v>4900</v>
       </c>
       <c r="I220" t="s">
         <v>13</v>
@@ -8549,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="E221">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F221" t="s">
         <v>12</v>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="H221" s="5">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I221" t="s">
         <v>25</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="E222">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F222" t="s">
         <v>12</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="H222" s="5">
         <f t="shared" si="3"/>
-        <v>34000</v>
+        <v>3400.0000000000005</v>
       </c>
       <c r="I222" t="s">
         <v>13</v>
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="E230">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F230" t="s">
         <v>12</v>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="H230" s="5">
         <f t="shared" si="3"/>
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="I230" t="s">
         <v>13</v>
@@ -8909,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="E231">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F231" t="s">
         <v>12</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="H231" s="5">
         <f t="shared" si="3"/>
-        <v>7600</v>
+        <v>9500</v>
       </c>
       <c r="I231" t="s">
         <v>13</v>
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E232">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="F232" t="s">
         <v>12</v>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="H232" s="5">
         <f t="shared" si="3"/>
-        <v>380</v>
+        <v>3420</v>
       </c>
       <c r="I232" t="s">
         <v>13</v>
@@ -8981,7 +8981,7 @@
         <v>2</v>
       </c>
       <c r="E233">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F233" t="s">
         <v>12</v>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H233" s="5">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I233" t="s">
         <v>13</v>
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="E234">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="F234" t="s">
         <v>12</v>
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H234" s="5">
         <f t="shared" si="3"/>
-        <v>760</v>
+        <v>4560</v>
       </c>
       <c r="I234" t="s">
         <v>13</v>
@@ -9053,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F235" t="s">
         <v>12</v>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="H235" s="5">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="I235" t="s">
         <v>13</v>
@@ -9125,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="E237">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="F237" t="s">
         <v>12</v>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="H237" s="5">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>9500</v>
       </c>
       <c r="I237" t="s">
         <v>13</v>
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E238">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="F238" t="s">
         <v>12</v>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="H238" s="5">
         <f t="shared" si="3"/>
-        <v>1520</v>
+        <v>5320</v>
       </c>
       <c r="I238" t="s">
         <v>13</v>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="E239">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F239" t="s">
         <v>12</v>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="H239" s="5">
         <f t="shared" si="3"/>
-        <v>3800</v>
+        <v>15200</v>
       </c>
       <c r="I239" t="s">
         <v>13</v>
@@ -9269,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="E241">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F241" t="s">
         <v>12</v>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="H241" s="5">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="E244">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="F244" t="s">
         <v>12</v>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="H244" s="5">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>32300</v>
       </c>
       <c r="I244" t="s">
         <v>13</v>
@@ -9521,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="E248">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="F248" t="s">
         <v>12</v>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="H248" s="5">
         <f t="shared" si="3"/>
-        <v>760</v>
+        <v>12160</v>
       </c>
       <c r="I248" t="s">
         <v>13</v>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="E249">
-        <v>2000</v>
+        <v>42000</v>
       </c>
       <c r="F249" t="s">
         <v>12</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="H249" s="5">
         <f t="shared" si="3"/>
-        <v>760</v>
+        <v>15960</v>
       </c>
       <c r="I249" t="s">
         <v>13</v>
@@ -9593,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="E250">
-        <v>3000</v>
+        <v>23000</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="H250" s="5">
         <f t="shared" si="3"/>
-        <v>1140</v>
+        <v>8740</v>
       </c>
       <c r="I250" t="s">
         <v>13</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="E251">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="F251" t="s">
         <v>12</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="H251" s="5">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>5700</v>
       </c>
       <c r="I251" t="s">
         <v>13</v>
@@ -9701,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="E253">
-        <v>8000</v>
+        <v>58000</v>
       </c>
       <c r="F253" t="s">
         <v>12</v>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H253" s="5">
         <f t="shared" si="3"/>
-        <v>3040</v>
+        <v>22040</v>
       </c>
       <c r="I253" t="s">
         <v>13</v>
@@ -9737,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="E254">
-        <v>2000</v>
+        <v>52000</v>
       </c>
       <c r="F254" t="s">
         <v>12</v>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="H254" s="5">
         <f t="shared" si="3"/>
-        <v>760</v>
+        <v>19760</v>
       </c>
       <c r="I254" t="s">
         <v>13</v>
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E255">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="F255" t="s">
         <v>12</v>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="H255" s="5">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>4750</v>
       </c>
       <c r="I255" t="s">
         <v>13</v>
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="E256">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="F256" t="s">
         <v>12</v>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H256" s="5">
         <f t="shared" si="3"/>
-        <v>1140</v>
+        <v>1330</v>
       </c>
       <c r="I256" t="s">
         <v>13</v>
@@ -9845,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="E257">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F257" t="s">
         <v>12</v>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="H257" s="5">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I257" t="s">
         <v>25</v>
@@ -9881,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="E258">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F258" t="s">
         <v>12</v>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="H258" s="5">
         <f t="shared" ref="H258:H321" si="4">E258*G258</f>
-        <v>11400</v>
+        <v>3800</v>
       </c>
       <c r="I258" t="s">
         <v>13</v>
@@ -9917,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="E259">
-        <v>35000</v>
+        <v>13500</v>
       </c>
       <c r="F259" t="s">
         <v>12</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="H259" s="5">
         <f t="shared" si="4"/>
-        <v>13300</v>
+        <v>5130</v>
       </c>
       <c r="I259" t="s">
         <v>13</v>
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="H260" s="5">
         <f t="shared" si="4"/>
-        <v>15200</v>
+        <v>1520</v>
       </c>
       <c r="I260" t="s">
         <v>13</v>
@@ -10025,7 +10025,7 @@
         <v>3</v>
       </c>
       <c r="E262">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="F262" t="s">
         <v>12</v>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="H262" s="5">
         <f t="shared" si="4"/>
-        <v>49000</v>
+        <v>4900</v>
       </c>
       <c r="I262" t="s">
         <v>13</v>
@@ -10061,7 +10061,7 @@
         <v>3</v>
       </c>
       <c r="E263">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F263" t="s">
         <v>12</v>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="H263" s="5">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="I263" t="s">
         <v>13</v>
@@ -10133,7 +10133,7 @@
         <v>5</v>
       </c>
       <c r="E265">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F265" t="s">
         <v>12</v>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="H265" s="5">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I265" t="s">
         <v>13</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F268" t="s">
         <v>12</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="H268" s="5">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I268" t="s">
         <v>13</v>
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="E269">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="F269" t="s">
         <v>12</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="H269" s="5">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>5700</v>
       </c>
       <c r="I269" t="s">
         <v>13</v>
@@ -10313,7 +10313,7 @@
         <v>2</v>
       </c>
       <c r="E270">
-        <v>12000</v>
+        <v>9200</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="H270" s="5">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>18400</v>
       </c>
       <c r="I270" t="s">
         <v>13</v>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E272">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="F272" t="s">
         <v>12</v>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="H272" s="5">
         <f t="shared" si="4"/>
-        <v>22800</v>
+        <v>2280</v>
       </c>
       <c r="I272" t="s">
         <v>13</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="E273">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F273" t="s">
         <v>12</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H273" s="5">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I273" t="s">
         <v>13</v>
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="E281">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F281" t="s">
         <v>12</v>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="H281" s="5">
         <f t="shared" si="4"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I281" t="s">
         <v>13</v>
@@ -10817,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="E284">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F284" t="s">
         <v>12</v>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="H284" s="5">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I284" t="s">
         <v>25</v>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="E285">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F285" t="s">
         <v>12</v>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="H285" s="5">
         <f t="shared" si="4"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I285" t="s">
         <v>13</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="E287">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F287" t="s">
         <v>12</v>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="H287" s="5">
         <f t="shared" si="4"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I287" t="s">
         <v>13</v>
@@ -11033,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="E290">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F290" t="s">
         <v>12</v>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="H290" s="5">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>2400</v>
       </c>
       <c r="I290" t="s">
         <v>13</v>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="E302">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F302" t="s">
         <v>12</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="H302" s="5">
         <f t="shared" si="4"/>
-        <v>15200</v>
+        <v>1520</v>
       </c>
       <c r="I302" s="7" t="s">
         <v>44</v>
@@ -11681,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="E308">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="F308" t="s">
         <v>12</v>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H308" s="5">
         <f t="shared" si="4"/>
-        <v>3420</v>
+        <v>34200</v>
       </c>
       <c r="I308" t="s">
         <v>13</v>
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="E309">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F309" t="s">
         <v>12</v>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="H309" s="5">
         <f t="shared" si="4"/>
-        <v>1520</v>
+        <v>15200</v>
       </c>
       <c r="I309" t="s">
         <v>13</v>
@@ -11825,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="E312">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F312" t="s">
         <v>12</v>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="H312" s="5">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="I312" t="s">
         <v>13</v>
@@ -12005,7 +12005,7 @@
         <v>4</v>
       </c>
       <c r="E317">
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="F317" t="s">
         <v>12</v>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="H317" s="5">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="I317" t="s">
         <v>25</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E318">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="F318" t="s">
         <v>12</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="H318" s="5">
         <f t="shared" si="4"/>
-        <v>11400</v>
+        <v>2660</v>
       </c>
       <c r="I318" t="s">
         <v>13</v>
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="E319">
-        <v>35000</v>
+        <v>7500</v>
       </c>
       <c r="F319" t="s">
         <v>12</v>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="H319" s="5">
         <f t="shared" si="4"/>
-        <v>13300</v>
+        <v>2850</v>
       </c>
       <c r="I319" t="s">
         <v>13</v>
@@ -12113,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="E320">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="F320" t="s">
         <v>12</v>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="H320" s="5">
         <f t="shared" si="4"/>
-        <v>7600</v>
+        <v>3420</v>
       </c>
       <c r="I320" t="s">
         <v>49</v>
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="E324">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F324" t="s">
         <v>12</v>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="H324" s="5">
         <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>2280</v>
       </c>
       <c r="I324" t="s">
         <v>35</v>
@@ -12401,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="E328">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F328" t="s">
         <v>12</v>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="H328" s="5">
         <f t="shared" si="5"/>
-        <v>760</v>
+        <v>7600</v>
       </c>
       <c r="I328" t="s">
         <v>13</v>
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="E329">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="F329" t="s">
         <v>12</v>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="H329" s="5">
         <f t="shared" si="5"/>
-        <v>950</v>
+        <v>2850</v>
       </c>
       <c r="I329" t="s">
         <v>13</v>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="E332">
-        <v>3000</v>
+        <v>39000</v>
       </c>
       <c r="F332" t="s">
         <v>12</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="H332" s="5">
         <f t="shared" si="5"/>
-        <v>1140</v>
+        <v>14820</v>
       </c>
       <c r="I332" t="s">
         <v>13</v>
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="E337">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F337" t="s">
         <v>12</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="H337" s="5">
         <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="I337" t="s">
         <v>13</v>
@@ -12761,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="E338">
-        <v>9000</v>
+        <v>70000</v>
       </c>
       <c r="F338" t="s">
         <v>12</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="H338" s="5">
         <f t="shared" si="5"/>
-        <v>3420</v>
+        <v>26600</v>
       </c>
       <c r="I338" t="s">
         <v>13</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F340" t="s">
         <v>12</v>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="H340" s="5">
         <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>9500</v>
       </c>
       <c r="I340" t="s">
         <v>35</v>
@@ -12869,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="E341">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="F341" t="s">
         <v>12</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="H341" s="5">
         <f t="shared" si="5"/>
-        <v>1900</v>
+        <v>17100</v>
       </c>
       <c r="I341" t="s">
         <v>35</v>
@@ -12941,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="E343">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="F343" t="s">
         <v>12</v>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H343" s="5">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="I343" t="s">
         <v>13</v>
@@ -12977,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="E344">
-        <v>8000</v>
+        <v>41000</v>
       </c>
       <c r="F344" t="s">
         <v>12</v>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="H344" s="5">
         <f t="shared" si="5"/>
-        <v>3040</v>
+        <v>15580</v>
       </c>
       <c r="I344" t="s">
         <v>13</v>
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="E345">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="F345" t="s">
         <v>12</v>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="H345" s="5">
         <f t="shared" si="5"/>
-        <v>760</v>
+        <v>9500</v>
       </c>
       <c r="I345" t="s">
         <v>13</v>
@@ -13049,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="E346">
-        <v>2500</v>
+        <v>15500</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="H346" s="5">
         <f t="shared" si="5"/>
-        <v>950</v>
+        <v>5890</v>
       </c>
       <c r="I346" t="s">
         <v>13</v>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="F347" t="s">
         <v>12</v>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="H347" s="5">
         <f t="shared" si="5"/>
-        <v>1140</v>
+        <v>4180</v>
       </c>
       <c r="I347" t="s">
         <v>13</v>
@@ -13121,7 +13121,7 @@
         <v>4</v>
       </c>
       <c r="E348">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F348" t="s">
         <v>12</v>
@@ -13131,7 +13131,7 @@
       </c>
       <c r="H348" s="5">
         <f t="shared" si="5"/>
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="I348" t="s">
         <v>25</v>
@@ -13157,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="E349">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="F349" t="s">
         <v>12</v>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="H349" s="5">
         <f t="shared" si="5"/>
-        <v>11400</v>
+        <v>1900</v>
       </c>
       <c r="I349" t="s">
         <v>13</v>
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="E350">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="F350" t="s">
         <v>12</v>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="H350" s="5">
         <f t="shared" si="5"/>
-        <v>13300</v>
+        <v>3040</v>
       </c>
       <c r="I350" t="s">
         <v>13</v>
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="E351">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="F351" t="s">
         <v>12</v>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="H351" s="5">
         <f t="shared" si="5"/>
-        <v>15200</v>
+        <v>3420</v>
       </c>
       <c r="I351" t="s">
         <v>13</v>
@@ -13301,7 +13301,7 @@
         <v>3</v>
       </c>
       <c r="E353">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="F353" t="s">
         <v>12</v>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H353" s="5">
         <f t="shared" si="5"/>
-        <v>49000</v>
+        <v>7000</v>
       </c>
       <c r="I353" t="s">
         <v>13</v>
@@ -13337,7 +13337,7 @@
         <v>3</v>
       </c>
       <c r="E354">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F354" t="s">
         <v>12</v>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="H354" s="5">
         <f t="shared" si="5"/>
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="I354" t="s">
         <v>13</v>
@@ -13409,7 +13409,7 @@
         <v>5</v>
       </c>
       <c r="E356">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="F356" t="s">
         <v>12</v>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="H356" s="5">
         <f t="shared" si="5"/>
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="I356" t="s">
         <v>13</v>
@@ -13517,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="E359">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F359" t="s">
         <v>12</v>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="H359" s="5">
         <f t="shared" si="5"/>
-        <v>19000</v>
+        <v>380</v>
       </c>
       <c r="I359" t="s">
         <v>13</v>
@@ -13553,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="E360">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F360" t="s">
         <v>12</v>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="H360" s="5">
         <f t="shared" si="5"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I360" t="s">
         <v>13</v>
@@ -13589,7 +13589,7 @@
         <v>2</v>
       </c>
       <c r="E361">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="F361" t="s">
         <v>12</v>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="H361" s="5">
         <f t="shared" si="5"/>
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="I361" t="s">
         <v>13</v>
@@ -13661,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="E363">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="F363" t="s">
         <v>12</v>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H363" s="5">
         <f t="shared" si="5"/>
-        <v>22800</v>
+        <v>2280</v>
       </c>
       <c r="I363" t="s">
         <v>13</v>
@@ -13697,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="E364">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F364" t="s">
         <v>12</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="H364" s="5">
         <f t="shared" si="5"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I364" t="s">
         <v>13</v>
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>35000</v>
+        <v>3000</v>
       </c>
       <c r="F372" t="s">
         <v>12</v>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="H372" s="5">
         <f t="shared" si="5"/>
-        <v>13300</v>
+        <v>1140</v>
       </c>
       <c r="I372" t="s">
         <v>13</v>
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E374">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F374" t="s">
         <v>12</v>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="H374" s="5">
         <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>380</v>
       </c>
       <c r="I374" t="s">
         <v>13</v>
@@ -14093,7 +14093,7 @@
         <v>4</v>
       </c>
       <c r="E375">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F375" t="s">
         <v>12</v>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="H375" s="5">
         <f t="shared" si="5"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I375" t="s">
         <v>25</v>
@@ -14129,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="E376">
-        <v>35000</v>
+        <v>350</v>
       </c>
       <c r="F376" t="s">
         <v>12</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="H376" s="5">
         <f t="shared" si="5"/>
-        <v>13300</v>
+        <v>133</v>
       </c>
       <c r="I376" t="s">
         <v>13</v>
@@ -14201,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="E378">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F378" t="s">
         <v>12</v>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="H378" s="5">
         <f t="shared" si="5"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I378" t="s">
         <v>13</v>
@@ -14309,7 +14309,7 @@
         <v>2</v>
       </c>
       <c r="E381">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="F381" t="s">
         <v>12</v>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="H381" s="5">
         <f t="shared" si="5"/>
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="I381" t="s">
         <v>13</v>
@@ -14741,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="E393">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F393" t="s">
         <v>12</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="H393" s="5">
         <f t="shared" si="6"/>
-        <v>15200</v>
+        <v>1520</v>
       </c>
       <c r="I393" s="7" t="s">
         <v>44</v>
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="E394">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="F394" t="s">
         <v>12</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="H394" s="5">
         <f t="shared" si="6"/>
-        <v>950</v>
+        <v>2470</v>
       </c>
       <c r="I394" t="s">
         <v>13</v>
@@ -14921,7 +14921,7 @@
         <v>2</v>
       </c>
       <c r="E398">
-        <v>1200</v>
+        <v>11200</v>
       </c>
       <c r="F398" t="s">
         <v>12</v>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="H398" s="5">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>22400</v>
       </c>
       <c r="I398" t="s">
         <v>13</v>
@@ -14957,7 +14957,7 @@
         <v>1</v>
       </c>
       <c r="E399">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="F399" t="s">
         <v>12</v>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="H399" s="5">
         <f t="shared" si="6"/>
-        <v>3420</v>
+        <v>7220</v>
       </c>
       <c r="I399" t="s">
         <v>13</v>
@@ -14993,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="E400">
-        <v>4000</v>
+        <v>44000</v>
       </c>
       <c r="F400" t="s">
         <v>12</v>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="H400" s="5">
         <f t="shared" si="6"/>
-        <v>1520</v>
+        <v>16720</v>
       </c>
       <c r="I400" t="s">
         <v>13</v>
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="E401">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="F401" t="s">
         <v>12</v>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="H401" s="5">
         <f t="shared" si="6"/>
-        <v>3040</v>
+        <v>6840</v>
       </c>
       <c r="I401" t="s">
         <v>13</v>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="E402">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="F402" t="s">
         <v>12</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="H402" s="5">
         <f t="shared" si="6"/>
-        <v>3420</v>
+        <v>7220</v>
       </c>
       <c r="I402" t="s">
         <v>13</v>
@@ -15101,7 +15101,7 @@
         <v>2</v>
       </c>
       <c r="E403">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F403" t="s">
         <v>12</v>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="H403" s="5">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I403" t="s">
         <v>13</v>
@@ -15173,7 +15173,7 @@
         <v>1</v>
       </c>
       <c r="E405">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="F405" t="s">
         <v>12</v>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="H405" s="5">
         <f t="shared" si="6"/>
-        <v>760</v>
+        <v>4560</v>
       </c>
       <c r="I405" t="s">
         <v>13</v>
@@ -15209,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="E406">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="F406" t="s">
         <v>12</v>
@@ -15219,7 +15219,7 @@
       </c>
       <c r="H406" s="5">
         <f t="shared" si="6"/>
-        <v>950</v>
+        <v>2090</v>
       </c>
       <c r="I406" t="s">
         <v>13</v>
@@ -15281,7 +15281,7 @@
         <v>4</v>
       </c>
       <c r="E408">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F408" t="s">
         <v>12</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="H408" s="5">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I408" t="s">
         <v>25</v>
@@ -15317,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="E409">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F409" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="H409" s="5">
         <f t="shared" si="6"/>
-        <v>11400</v>
+        <v>1140</v>
       </c>
       <c r="I409" t="s">
         <v>13</v>
@@ -15353,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F410" t="s">
         <v>12</v>
@@ -15363,7 +15363,7 @@
       </c>
       <c r="H410" s="5">
         <f t="shared" si="6"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I410" t="s">
         <v>13</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F411" t="s">
         <v>12</v>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="H411" s="5">
         <f t="shared" si="6"/>
-        <v>7600</v>
+        <v>4560</v>
       </c>
       <c r="I411" t="s">
         <v>49</v>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F415" t="s">
         <v>12</v>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="H415" s="5">
         <f t="shared" si="6"/>
-        <v>3800</v>
+        <v>380</v>
       </c>
       <c r="I415" t="s">
         <v>13</v>
@@ -15605,7 +15605,7 @@
         <v>2</v>
       </c>
       <c r="E417">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F417" t="s">
         <v>12</v>
@@ -15615,7 +15615,7 @@
       </c>
       <c r="H417" s="5">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="I417" t="s">
         <v>13</v>
@@ -15641,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="E418">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F418" t="s">
         <v>12</v>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="H418" s="5">
         <f t="shared" si="6"/>
-        <v>3040</v>
+        <v>3420</v>
       </c>
       <c r="I418" t="s">
         <v>13</v>
@@ -15677,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="E419">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="F419" t="s">
         <v>12</v>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="H419" s="5">
         <f t="shared" si="6"/>
-        <v>760</v>
+        <v>4560</v>
       </c>
       <c r="I419" t="s">
         <v>13</v>
@@ -15713,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="E420">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F420" t="s">
         <v>12</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="H420" s="5">
         <f t="shared" si="6"/>
-        <v>950</v>
+        <v>1140</v>
       </c>
       <c r="I420" t="s">
         <v>13</v>
@@ -15965,7 +15965,7 @@
         <v>1</v>
       </c>
       <c r="E427">
-        <v>3000</v>
+        <v>40000</v>
       </c>
       <c r="F427" t="s">
         <v>12</v>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="H427" s="5">
         <f t="shared" si="6"/>
-        <v>1140</v>
+        <v>15200</v>
       </c>
       <c r="I427" t="s">
         <v>13</v>
@@ -16109,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="E431">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="F431" t="s">
         <v>12</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="H431" s="5">
         <f t="shared" si="6"/>
-        <v>7600</v>
+        <v>8360</v>
       </c>
       <c r="I431" t="s">
         <v>49</v>
@@ -16145,7 +16145,7 @@
         <v>2</v>
       </c>
       <c r="E432">
-        <v>1200</v>
+        <v>10200</v>
       </c>
       <c r="F432" t="s">
         <v>12</v>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="H432" s="5">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>20400</v>
       </c>
       <c r="I432" t="s">
         <v>13</v>
@@ -16181,7 +16181,7 @@
         <v>1</v>
       </c>
       <c r="E433">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="F433" t="s">
         <v>12</v>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="H433" s="5">
         <f t="shared" si="6"/>
-        <v>3420</v>
+        <v>3800</v>
       </c>
       <c r="I433" t="s">
         <v>13</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="E434">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="F434" t="s">
         <v>12</v>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="H434" s="5">
         <f t="shared" si="6"/>
-        <v>1520</v>
+        <v>11400</v>
       </c>
       <c r="I434" t="s">
         <v>13</v>
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="E437">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F437" t="s">
         <v>12</v>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="H437" s="5">
         <f t="shared" si="6"/>
-        <v>15200</v>
+        <v>3800</v>
       </c>
       <c r="I437" s="7" t="s">
         <v>52</v>
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="E438">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="F438" t="s">
         <v>12</v>
@@ -16371,7 +16371,7 @@
       </c>
       <c r="H438" s="5">
         <f t="shared" si="6"/>
-        <v>30400</v>
+        <v>11400</v>
       </c>
       <c r="I438" s="7" t="s">
         <v>13</v>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="E445">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="F445" t="s">
         <v>12</v>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="H445" s="5">
         <f t="shared" si="6"/>
-        <v>30400</v>
+        <v>11400</v>
       </c>
       <c r="I445" t="s">
         <v>13</v>
@@ -16649,7 +16649,7 @@
         <v>1</v>
       </c>
       <c r="E446">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F446" t="s">
         <v>12</v>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="H446" s="5">
         <f t="shared" si="6"/>
-        <v>19000</v>
+        <v>7600</v>
       </c>
       <c r="I446" t="s">
         <v>13</v>
@@ -16721,7 +16721,7 @@
         <v>2</v>
       </c>
       <c r="E448">
-        <v>25500</v>
+        <v>2500</v>
       </c>
       <c r="F448" t="s">
         <v>12</v>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="H448" s="5">
         <f t="shared" si="6"/>
-        <v>51000</v>
+        <v>5000</v>
       </c>
       <c r="I448" t="s">
         <v>13</v>
@@ -16865,7 +16865,7 @@
         <v>2</v>
       </c>
       <c r="E452">
-        <v>25500</v>
+        <v>5500</v>
       </c>
       <c r="F452" t="s">
         <v>12</v>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="H452" s="5">
         <f t="shared" si="7"/>
-        <v>51000</v>
+        <v>11000</v>
       </c>
       <c r="I452" t="s">
         <v>13</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="E455">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F455" t="s">
         <v>12</v>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="H455" s="5">
         <f t="shared" si="7"/>
-        <v>15200</v>
+        <v>1520</v>
       </c>
       <c r="I455" s="7" t="s">
         <v>44</v>
@@ -17333,7 +17333,7 @@
         <v>2</v>
       </c>
       <c r="E465">
-        <v>25000</v>
+        <v>1500</v>
       </c>
       <c r="F465" t="s">
         <v>12</v>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="H465" s="5">
         <f t="shared" si="7"/>
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="I465" t="s">
         <v>13</v>
@@ -17369,7 +17369,7 @@
         <v>1</v>
       </c>
       <c r="E466">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="F466" t="s">
         <v>12</v>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="H466" s="5">
         <f t="shared" si="7"/>
-        <v>3040</v>
+        <v>304</v>
       </c>
       <c r="I466" t="s">
         <v>13</v>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="E467">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F467" t="s">
         <v>12</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="H467" s="5">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>760</v>
       </c>
       <c r="I467" t="s">
         <v>13</v>
@@ -17441,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="E468">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="F468" t="s">
         <v>12</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="H468" s="5">
         <f t="shared" si="7"/>
-        <v>30400</v>
+        <v>760</v>
       </c>
       <c r="I468" s="7" t="s">
         <v>13</v>
@@ -17477,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="E469">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F469" t="s">
         <v>12</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="H469" s="5">
         <f t="shared" si="7"/>
-        <v>2660</v>
+        <v>1900</v>
       </c>
       <c r="I469" s="7" t="s">
         <v>13</v>
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="E470">
-        <v>9000</v>
+        <v>700</v>
       </c>
       <c r="F470" t="s">
         <v>12</v>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="H470" s="5">
         <f t="shared" si="7"/>
-        <v>3420</v>
+        <v>266</v>
       </c>
       <c r="I470" s="7" t="s">
         <v>13</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="E471">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="F471" t="s">
         <v>12</v>
@@ -17559,7 +17559,7 @@
       </c>
       <c r="H471" s="5">
         <f t="shared" si="7"/>
-        <v>6840</v>
+        <v>684</v>
       </c>
       <c r="I471" s="7" t="s">
         <v>13</v>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="E472">
-        <v>18500</v>
+        <v>1500</v>
       </c>
       <c r="F472" t="s">
         <v>12</v>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="H472" s="5">
         <f t="shared" si="7"/>
-        <v>7030</v>
+        <v>570</v>
       </c>
       <c r="I472" t="s">
         <v>13</v>
@@ -17693,7 +17693,7 @@
         <v>1</v>
       </c>
       <c r="E475">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="F475" t="s">
         <v>12</v>
@@ -17703,7 +17703,7 @@
       </c>
       <c r="H475" s="5">
         <f t="shared" si="7"/>
-        <v>30400</v>
+        <v>3040</v>
       </c>
       <c r="I475" t="s">
         <v>13</v>
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E476">
-        <v>50000</v>
+        <v>3500</v>
       </c>
       <c r="F476" t="s">
         <v>12</v>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="H476" s="5">
         <f t="shared" si="7"/>
-        <v>19000</v>
+        <v>1330</v>
       </c>
       <c r="I476" t="s">
         <v>13</v>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="E477">
-        <v>1200</v>
+        <v>5200</v>
       </c>
       <c r="F477" t="s">
         <v>12</v>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="H477" s="5">
         <f t="shared" si="7"/>
-        <v>456</v>
+        <v>1976</v>
       </c>
       <c r="I477" t="s">
         <v>49</v>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
       <c r="E482">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F482" t="s">
         <v>12</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="H482" s="5">
         <f t="shared" si="7"/>
-        <v>760</v>
+        <v>1140</v>
       </c>
       <c r="I482" t="s">
         <v>13</v>
@@ -17981,7 +17981,7 @@
         <v>1</v>
       </c>
       <c r="E483">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="F483" t="s">
         <v>12</v>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="H483" s="5">
         <f t="shared" si="7"/>
-        <v>15200</v>
+        <v>3420</v>
       </c>
       <c r="I483" s="7" t="s">
         <v>44</v>
@@ -18017,7 +18017,7 @@
         <v>1</v>
       </c>
       <c r="E484">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F484" t="s">
         <v>12</v>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="H484" s="5">
         <f t="shared" si="7"/>
-        <v>950</v>
+        <v>1140</v>
       </c>
       <c r="I484" t="s">
         <v>13</v>
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="E490">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="F490" t="s">
         <v>12</v>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="H490" s="5">
         <f t="shared" si="7"/>
-        <v>15200</v>
+        <v>76</v>
       </c>
       <c r="I490" s="7" t="s">
         <v>44</v>
@@ -18449,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="E496">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F496" t="s">
         <v>12</v>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="H496" s="5">
         <f t="shared" si="7"/>
-        <v>7600</v>
+        <v>760</v>
       </c>
       <c r="I496" t="s">
         <v>13</v>
@@ -18485,7 +18485,7 @@
         <v>5</v>
       </c>
       <c r="E497">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F497" t="s">
         <v>12</v>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="H497" s="5">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I497" t="s">
         <v>13</v>
@@ -18593,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="E500">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F500" t="s">
         <v>12</v>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="H500" s="5">
         <f t="shared" si="7"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I500" t="s">
         <v>13</v>
@@ -18629,7 +18629,7 @@
         <v>1</v>
       </c>
       <c r="E501">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="F501" t="s">
         <v>12</v>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="H501" s="5">
         <f t="shared" si="7"/>
-        <v>19000</v>
+        <v>114</v>
       </c>
       <c r="I501" t="s">
         <v>13</v>
@@ -18665,7 +18665,7 @@
         <v>2</v>
       </c>
       <c r="E502">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F502" t="s">
         <v>12</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H502" s="5">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>2400</v>
       </c>
       <c r="I502" t="s">
         <v>13</v>
@@ -18737,7 +18737,7 @@
         <v>1</v>
       </c>
       <c r="E504">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="F504" t="s">
         <v>12</v>
@@ -18747,7 +18747,7 @@
       </c>
       <c r="H504" s="5">
         <f t="shared" si="7"/>
-        <v>22800</v>
+        <v>2280</v>
       </c>
       <c r="I504" t="s">
         <v>13</v>
@@ -18773,7 +18773,7 @@
         <v>1</v>
       </c>
       <c r="E505">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F505" t="s">
         <v>12</v>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="H505" s="5">
         <f t="shared" si="7"/>
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="I505" t="s">
         <v>13</v>
@@ -18881,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="F508" t="s">
         <v>12</v>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="H508" s="5">
         <f t="shared" si="7"/>
-        <v>13600.000000000002</v>
+        <v>1360</v>
       </c>
       <c r="I508" t="s">
         <v>13</v>
@@ -18917,7 +18917,7 @@
         <v>4</v>
       </c>
       <c r="E509">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F509" t="s">
         <v>12</v>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="H509" s="5">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I509" t="s">
         <v>13</v>
@@ -18953,7 +18953,7 @@
         <v>4</v>
       </c>
       <c r="E510">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="F510" t="s">
         <v>12</v>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="H510" s="5">
         <f t="shared" si="7"/>
-        <v>28000</v>
+        <v>2800</v>
       </c>
       <c r="I510" t="s">
         <v>13</v>
@@ -18989,7 +18989,7 @@
         <v>5</v>
       </c>
       <c r="E511">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="F511" t="s">
         <v>12</v>
@@ -18999,7 +18999,7 @@
       </c>
       <c r="H511" s="5">
         <f t="shared" si="7"/>
-        <v>30600.000000000004</v>
+        <v>3060</v>
       </c>
       <c r="I511" t="s">
         <v>13</v>
@@ -19025,7 +19025,7 @@
         <v>4</v>
       </c>
       <c r="E512">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="F512" t="s">
         <v>12</v>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="H512" s="5">
         <f t="shared" si="7"/>
-        <v>80000</v>
+        <v>800</v>
       </c>
       <c r="I512" t="s">
         <v>25</v>
@@ -19061,7 +19061,7 @@
         <v>5</v>
       </c>
       <c r="E513">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F513" t="s">
         <v>12</v>
@@ -19071,7 +19071,7 @@
       </c>
       <c r="H513" s="5">
         <f t="shared" si="7"/>
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="I513" t="s">
         <v>13</v>
@@ -19097,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="E514">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F514" t="s">
         <v>12</v>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="H514" s="5">
         <f t="shared" ref="H514:H556" si="8">E514*G514</f>
-        <v>6800.0000000000009</v>
+        <v>680</v>
       </c>
       <c r="I514" t="s">
         <v>13</v>
@@ -19133,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="E515">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F515" t="s">
         <v>12</v>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="H515" s="5">
         <f t="shared" si="8"/>
-        <v>1700.0000000000002</v>
+        <v>2720</v>
       </c>
       <c r="I515" t="s">
         <v>13</v>
@@ -19169,7 +19169,7 @@
         <v>4</v>
       </c>
       <c r="E516">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F516" t="s">
         <v>12</v>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="H516" s="5">
         <f t="shared" si="8"/>
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="I516" t="s">
         <v>13</v>
@@ -19205,7 +19205,7 @@
         <v>4</v>
       </c>
       <c r="E517">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F517" t="s">
         <v>12</v>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="H517" s="5">
         <f t="shared" si="8"/>
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="I517" t="s">
         <v>13</v>
@@ -19277,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="E519">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F519" t="s">
         <v>12</v>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="H519" s="5">
         <f t="shared" si="8"/>
-        <v>17000</v>
+        <v>1700.0000000000002</v>
       </c>
       <c r="I519" t="s">
         <v>13</v>
@@ -19313,7 +19313,7 @@
         <v>2</v>
       </c>
       <c r="E520">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F520" t="s">
         <v>12</v>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="H520" s="5">
         <f t="shared" si="8"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="I520" t="s">
         <v>13</v>
@@ -19349,7 +19349,7 @@
         <v>1</v>
       </c>
       <c r="E521">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F521" t="s">
         <v>12</v>
@@ -19359,7 +19359,7 @@
       </c>
       <c r="H521" s="5">
         <f t="shared" si="8"/>
-        <v>3400.0000000000005</v>
+        <v>1020.0000000000001</v>
       </c>
       <c r="I521" t="s">
         <v>13</v>
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="E522">
-        <v>10000</v>
+        <v>3400</v>
       </c>
       <c r="F522" t="s">
         <v>12</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="H522" s="5">
         <f t="shared" si="8"/>
-        <v>3400.0000000000005</v>
+        <v>1156</v>
       </c>
       <c r="I522" t="s">
         <v>13</v>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="E523">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="F523" t="s">
         <v>12</v>
@@ -19431,7 +19431,7 @@
       </c>
       <c r="H523" s="5">
         <f t="shared" si="8"/>
-        <v>3400.0000000000005</v>
+        <v>1190</v>
       </c>
       <c r="I523" t="s">
         <v>13</v>
@@ -19493,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="E525">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F525" t="s">
         <v>12</v>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="H525" s="5">
         <f t="shared" si="8"/>
-        <v>17000</v>
+        <v>1700.0000000000002</v>
       </c>
       <c r="I525" t="s">
         <v>13</v>
@@ -19529,7 +19529,7 @@
         <v>2</v>
       </c>
       <c r="E526">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="F526" t="s">
         <v>12</v>
@@ -19539,7 +19539,7 @@
       </c>
       <c r="H526" s="5">
         <f t="shared" si="8"/>
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="I526" t="s">
         <v>13</v>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E527">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="F527" t="s">
         <v>12</v>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="H527" s="5">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>680</v>
       </c>
       <c r="I527" t="s">
         <v>13</v>
@@ -19601,7 +19601,7 @@
         <v>1</v>
       </c>
       <c r="E528">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F528" t="s">
         <v>12</v>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="H528" s="5">
         <f t="shared" si="8"/>
-        <v>680</v>
+        <v>850.00000000000011</v>
       </c>
       <c r="I528" t="s">
         <v>13</v>
@@ -19637,7 +19637,7 @@
         <v>1</v>
       </c>
       <c r="E529">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="F529" t="s">
         <v>12</v>
@@ -19647,7 +19647,7 @@
       </c>
       <c r="H529" s="5">
         <f t="shared" si="8"/>
-        <v>850.00000000000011</v>
+        <v>1190</v>
       </c>
       <c r="I529" t="s">
         <v>13</v>
@@ -19745,7 +19745,7 @@
         <v>5</v>
       </c>
       <c r="E532">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F532" t="s">
         <v>12</v>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="H532" s="5">
         <f t="shared" si="8"/>
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="I532" t="s">
         <v>13</v>
@@ -19853,7 +19853,7 @@
         <v>4</v>
       </c>
       <c r="E535">
-        <v>50500</v>
+        <v>5050</v>
       </c>
       <c r="F535" t="s">
         <v>12</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="H535" s="5">
         <f t="shared" si="8"/>
-        <v>20200</v>
+        <v>2020</v>
       </c>
       <c r="I535" t="s">
         <v>13</v>
@@ -19925,7 +19925,7 @@
         <v>2</v>
       </c>
       <c r="E537">
-        <v>52000</v>
+        <v>520</v>
       </c>
       <c r="F537" t="s">
         <v>12</v>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="H537" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>1040</v>
       </c>
       <c r="I537" t="s">
         <v>13</v>
@@ -19961,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="E538">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F538" t="s">
         <v>12</v>
@@ -19971,7 +19971,7 @@
       </c>
       <c r="H538" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>680</v>
       </c>
       <c r="I538" t="s">
         <v>62</v>
@@ -20033,7 +20033,7 @@
         <v>2</v>
       </c>
       <c r="E540">
-        <v>52000</v>
+        <v>520</v>
       </c>
       <c r="F540" t="s">
         <v>12</v>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="H540" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>1040</v>
       </c>
       <c r="I540" t="s">
         <v>13</v>
@@ -20069,7 +20069,7 @@
         <v>1</v>
       </c>
       <c r="E541">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F541" t="s">
         <v>12</v>
@@ -20079,7 +20079,7 @@
       </c>
       <c r="H541" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>680</v>
       </c>
       <c r="I541" t="s">
         <v>62</v>
@@ -20141,7 +20141,7 @@
         <v>2</v>
       </c>
       <c r="E543">
-        <v>52000</v>
+        <v>2200</v>
       </c>
       <c r="F543" t="s">
         <v>12</v>
@@ -20151,7 +20151,7 @@
       </c>
       <c r="H543" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>4400</v>
       </c>
       <c r="I543" t="s">
         <v>13</v>
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E544">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="F544" t="s">
         <v>12</v>
@@ -20187,7 +20187,7 @@
       </c>
       <c r="H544" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>3060</v>
       </c>
       <c r="I544" t="s">
         <v>62</v>
@@ -20249,7 +20249,7 @@
         <v>2</v>
       </c>
       <c r="E546">
-        <v>52000</v>
+        <v>2000</v>
       </c>
       <c r="F546" t="s">
         <v>12</v>
@@ -20259,7 +20259,7 @@
       </c>
       <c r="H546" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="I546" t="s">
         <v>13</v>
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="E547">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F547" t="s">
         <v>12</v>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="H547" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>3400.0000000000005</v>
       </c>
       <c r="I547" t="s">
         <v>62</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="E548">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F548" t="s">
         <v>12</v>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="H548" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>4080.0000000000005</v>
       </c>
       <c r="I548" t="s">
         <v>62</v>
@@ -20393,7 +20393,7 @@
         <v>2</v>
       </c>
       <c r="E550">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="F550" t="s">
         <v>12</v>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="H550" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>5000</v>
       </c>
       <c r="I550" t="s">
         <v>13</v>
@@ -20429,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="E551">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F551" t="s">
         <v>12</v>
@@ -20439,7 +20439,7 @@
       </c>
       <c r="H551" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>680</v>
       </c>
       <c r="I551" t="s">
         <v>62</v>
@@ -20501,7 +20501,7 @@
         <v>2</v>
       </c>
       <c r="E553">
-        <v>52000</v>
+        <v>2000</v>
       </c>
       <c r="F553" t="s">
         <v>12</v>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="H553" s="5">
         <f t="shared" si="8"/>
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="I553" t="s">
         <v>13</v>
@@ -20537,7 +20537,7 @@
         <v>1</v>
       </c>
       <c r="E554">
-        <v>20000</v>
+        <v>2200</v>
       </c>
       <c r="F554" t="s">
         <v>12</v>
@@ -20547,7 +20547,7 @@
       </c>
       <c r="H554" s="5">
         <f t="shared" si="8"/>
-        <v>6800.0000000000009</v>
+        <v>748</v>
       </c>
       <c r="I554" t="s">
         <v>62</v>
@@ -20573,7 +20573,7 @@
         <v>2</v>
       </c>
       <c r="E555">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F555" t="s">
         <v>12</v>
@@ -20583,7 +20583,7 @@
       </c>
       <c r="H555" s="5">
         <f t="shared" si="8"/>
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="I555" t="s">
         <v>62</v>
@@ -20609,7 +20609,7 @@
         <v>1</v>
       </c>
       <c r="E556">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F556" t="s">
         <v>12</v>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="H556" s="5">
         <f t="shared" si="8"/>
-        <v>3400.0000000000005</v>
+        <v>680</v>
       </c>
       <c r="I556" t="s">
         <v>25</v>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="E557">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F557" t="s">
         <v>12</v>
@@ -20655,7 +20655,7 @@
       </c>
       <c r="H557" s="5">
         <f t="shared" ref="H557:H558" si="9">E557*G557</f>
-        <v>3400.0000000000005</v>
+        <v>340</v>
       </c>
       <c r="I557" t="s">
         <v>25</v>
@@ -20681,7 +20681,7 @@
         <v>5</v>
       </c>
       <c r="E558">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="F558" t="s">
         <v>12</v>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="H558" s="5">
         <f t="shared" si="9"/>
-        <v>15000</v>
+        <v>1250</v>
       </c>
       <c r="I558" t="s">
         <v>13</v>
@@ -20789,7 +20789,7 @@
         <v>5</v>
       </c>
       <c r="E561">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F561" t="s">
         <v>12</v>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="H561" s="5">
         <f t="shared" si="10"/>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I561" t="s">
         <v>13</v>
@@ -20861,7 +20861,7 @@
         <v>2</v>
       </c>
       <c r="E563">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F563" t="s">
         <v>12</v>
@@ -20871,7 +20871,7 @@
       </c>
       <c r="H563" s="5">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I563" t="s">
         <v>62</v>
@@ -20897,7 +20897,7 @@
         <v>4</v>
       </c>
       <c r="E564">
-        <v>50000</v>
+        <v>4300</v>
       </c>
       <c r="F564" t="s">
         <v>12</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="H564" s="5">
         <f t="shared" si="10"/>
-        <v>20000</v>
+        <v>1720</v>
       </c>
       <c r="I564" t="s">
         <v>25</v>
@@ -20933,7 +20933,7 @@
         <v>1</v>
       </c>
       <c r="E565">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F565" t="s">
         <v>12</v>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H565" s="5">
         <f t="shared" si="10"/>
-        <v>11400</v>
+        <v>1140</v>
       </c>
       <c r="I565" t="s">
         <v>13</v>
@@ -20969,7 +20969,7 @@
         <v>1</v>
       </c>
       <c r="E566">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F566" t="s">
         <v>12</v>
@@ -20979,7 +20979,7 @@
       </c>
       <c r="H566" s="5">
         <f t="shared" si="10"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I566" t="s">
         <v>13</v>
@@ -21005,7 +21005,7 @@
         <v>1</v>
       </c>
       <c r="E567">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F567" t="s">
         <v>12</v>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="H567" s="5">
         <f t="shared" si="10"/>
-        <v>7600</v>
+        <v>760</v>
       </c>
       <c r="I567" t="s">
         <v>49</v>
@@ -21365,7 +21365,7 @@
         <v>1</v>
       </c>
       <c r="E577">
-        <v>20000</v>
+        <v>1300</v>
       </c>
       <c r="F577" t="s">
         <v>12</v>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="H577" s="5">
         <f t="shared" si="10"/>
-        <v>7600</v>
+        <v>494</v>
       </c>
       <c r="I577" s="7" t="s">
         <v>52</v>
@@ -21473,7 +21473,7 @@
         <v>4</v>
       </c>
       <c r="E580">
-        <v>50500</v>
+        <v>10500</v>
       </c>
       <c r="F580" t="s">
         <v>12</v>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="H580" s="5">
         <f t="shared" si="10"/>
-        <v>20200</v>
+        <v>4200</v>
       </c>
       <c r="I580" t="s">
         <v>25</v>
@@ -21509,7 +21509,7 @@
         <v>1</v>
       </c>
       <c r="E581">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="F581" t="s">
         <v>12</v>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="H581" s="5">
         <f t="shared" si="10"/>
-        <v>13300</v>
+        <v>1330</v>
       </c>
       <c r="I581" t="s">
         <v>13</v>
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
       <c r="E582">
-        <v>25000</v>
+        <v>1500</v>
       </c>
       <c r="F582" t="s">
         <v>12</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="H582" s="5">
         <f t="shared" si="10"/>
-        <v>9500</v>
+        <v>570</v>
       </c>
       <c r="I582" t="s">
         <v>13</v>
@@ -21581,7 +21581,7 @@
         <v>1</v>
       </c>
       <c r="E583">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="F583" t="s">
         <v>12</v>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="H583" s="5">
         <f t="shared" si="10"/>
-        <v>7600</v>
+        <v>380</v>
       </c>
       <c r="I583" t="s">
         <v>49</v>

--- a/BaseDemonstracao.xlsx
+++ b/BaseDemonstracao.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="73">
   <si>
     <t>Cod</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K583"/>
+  <dimension ref="A1:K613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A584" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B614" sqref="B614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20726,7 +20726,7 @@
         <v>0.5</v>
       </c>
       <c r="H559" s="5">
-        <f t="shared" ref="H559:H583" si="10">E559*G559</f>
+        <f t="shared" ref="H559:H590" si="10">E559*G559</f>
         <v>500</v>
       </c>
       <c r="I559" t="s">
@@ -21601,6 +21601,1086 @@
       </c>
       <c r="K583">
         <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584" s="1">
+        <v>43447</v>
+      </c>
+      <c r="C584" t="s">
+        <v>61</v>
+      </c>
+      <c r="D584">
+        <v>2</v>
+      </c>
+      <c r="E584">
+        <v>1000</v>
+      </c>
+      <c r="F584" t="s">
+        <v>12</v>
+      </c>
+      <c r="G584" s="5">
+        <v>2</v>
+      </c>
+      <c r="H584" s="5">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="I584" t="s">
+        <v>62</v>
+      </c>
+      <c r="J584" t="s">
+        <v>62</v>
+      </c>
+      <c r="K584">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585" s="1">
+        <v>43447</v>
+      </c>
+      <c r="C585" t="s">
+        <v>63</v>
+      </c>
+      <c r="D585">
+        <v>2</v>
+      </c>
+      <c r="E585">
+        <v>2000</v>
+      </c>
+      <c r="F585" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" s="5">
+        <v>2</v>
+      </c>
+      <c r="H585" s="5">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="I585" t="s">
+        <v>13</v>
+      </c>
+      <c r="J585" t="s">
+        <v>64</v>
+      </c>
+      <c r="K585">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586" s="1">
+        <v>43447</v>
+      </c>
+      <c r="C586" t="s">
+        <v>65</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>2200</v>
+      </c>
+      <c r="F586" t="s">
+        <v>12</v>
+      </c>
+      <c r="G586" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H586" s="5">
+        <f t="shared" si="10"/>
+        <v>748</v>
+      </c>
+      <c r="I586" t="s">
+        <v>62</v>
+      </c>
+      <c r="J586" t="s">
+        <v>66</v>
+      </c>
+      <c r="K586">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587" s="1">
+        <v>43448</v>
+      </c>
+      <c r="C587" t="s">
+        <v>67</v>
+      </c>
+      <c r="D587">
+        <v>2</v>
+      </c>
+      <c r="E587">
+        <v>500</v>
+      </c>
+      <c r="F587" t="s">
+        <v>12</v>
+      </c>
+      <c r="G587" s="5">
+        <v>2</v>
+      </c>
+      <c r="H587" s="5">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="I587" t="s">
+        <v>62</v>
+      </c>
+      <c r="J587" t="s">
+        <v>68</v>
+      </c>
+      <c r="K587">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588" s="1">
+        <v>43448</v>
+      </c>
+      <c r="C588" t="s">
+        <v>69</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>2000</v>
+      </c>
+      <c r="F588" t="s">
+        <v>12</v>
+      </c>
+      <c r="G588" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H588" s="5">
+        <f t="shared" si="10"/>
+        <v>680</v>
+      </c>
+      <c r="I588" t="s">
+        <v>25</v>
+      </c>
+      <c r="J588" t="s">
+        <v>70</v>
+      </c>
+      <c r="K588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589" s="1">
+        <v>43450</v>
+      </c>
+      <c r="C589" t="s">
+        <v>69</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>1000</v>
+      </c>
+      <c r="F589" t="s">
+        <v>12</v>
+      </c>
+      <c r="G589" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="H589" s="5">
+        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="I589" t="s">
+        <v>25</v>
+      </c>
+      <c r="J589" t="s">
+        <v>70</v>
+      </c>
+      <c r="K589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590" s="1">
+        <v>43453</v>
+      </c>
+      <c r="C590" t="s">
+        <v>71</v>
+      </c>
+      <c r="D590">
+        <v>5</v>
+      </c>
+      <c r="E590">
+        <v>2500</v>
+      </c>
+      <c r="F590" t="s">
+        <v>12</v>
+      </c>
+      <c r="G590" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H590" s="5">
+        <f t="shared" si="10"/>
+        <v>1250</v>
+      </c>
+      <c r="I590" t="s">
+        <v>13</v>
+      </c>
+      <c r="J590" t="s">
+        <v>72</v>
+      </c>
+      <c r="K590">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591" s="1">
+        <v>43454</v>
+      </c>
+      <c r="C591" t="s">
+        <v>71</v>
+      </c>
+      <c r="D591">
+        <v>5</v>
+      </c>
+      <c r="E591">
+        <v>1000</v>
+      </c>
+      <c r="F591" t="s">
+        <v>12</v>
+      </c>
+      <c r="G591" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H591" s="5">
+        <f t="shared" ref="H591:H611" si="11">E591*G591</f>
+        <v>500</v>
+      </c>
+      <c r="I591" t="s">
+        <v>13</v>
+      </c>
+      <c r="J591" t="s">
+        <v>72</v>
+      </c>
+      <c r="K591">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592" s="1">
+        <v>43455</v>
+      </c>
+      <c r="C592" t="s">
+        <v>71</v>
+      </c>
+      <c r="D592">
+        <v>5</v>
+      </c>
+      <c r="E592">
+        <v>500</v>
+      </c>
+      <c r="F592" t="s">
+        <v>12</v>
+      </c>
+      <c r="G592" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H592" s="5">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="I592" t="s">
+        <v>13</v>
+      </c>
+      <c r="J592" t="s">
+        <v>72</v>
+      </c>
+      <c r="K592">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593" s="1">
+        <v>43456</v>
+      </c>
+      <c r="C593" t="s">
+        <v>71</v>
+      </c>
+      <c r="D593">
+        <v>5</v>
+      </c>
+      <c r="E593">
+        <v>1000</v>
+      </c>
+      <c r="F593" t="s">
+        <v>12</v>
+      </c>
+      <c r="G593" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H593" s="5">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="I593" t="s">
+        <v>13</v>
+      </c>
+      <c r="J593" t="s">
+        <v>72</v>
+      </c>
+      <c r="K593">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594" s="1">
+        <v>43457</v>
+      </c>
+      <c r="C594" t="s">
+        <v>71</v>
+      </c>
+      <c r="D594">
+        <v>5</v>
+      </c>
+      <c r="E594">
+        <v>2000</v>
+      </c>
+      <c r="F594" t="s">
+        <v>12</v>
+      </c>
+      <c r="G594" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H594" s="5">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="I594" t="s">
+        <v>13</v>
+      </c>
+      <c r="J594" t="s">
+        <v>72</v>
+      </c>
+      <c r="K594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595" s="1">
+        <v>43458</v>
+      </c>
+      <c r="C595" t="s">
+        <v>67</v>
+      </c>
+      <c r="D595">
+        <v>2</v>
+      </c>
+      <c r="E595">
+        <v>1000</v>
+      </c>
+      <c r="F595" t="s">
+        <v>12</v>
+      </c>
+      <c r="G595" s="5">
+        <v>2</v>
+      </c>
+      <c r="H595" s="5">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="I595" t="s">
+        <v>62</v>
+      </c>
+      <c r="J595" t="s">
+        <v>68</v>
+      </c>
+      <c r="K595">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596" s="1">
+        <v>43458</v>
+      </c>
+      <c r="C596" t="s">
+        <v>24</v>
+      </c>
+      <c r="D596">
+        <v>4</v>
+      </c>
+      <c r="E596">
+        <v>4300</v>
+      </c>
+      <c r="F596" t="s">
+        <v>12</v>
+      </c>
+      <c r="G596" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H596" s="5">
+        <f t="shared" si="11"/>
+        <v>1720</v>
+      </c>
+      <c r="I596" t="s">
+        <v>25</v>
+      </c>
+      <c r="J596" t="s">
+        <v>26</v>
+      </c>
+      <c r="K596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597" s="1">
+        <v>43460</v>
+      </c>
+      <c r="C597" t="s">
+        <v>16</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>3000</v>
+      </c>
+      <c r="F597" t="s">
+        <v>12</v>
+      </c>
+      <c r="G597" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H597" s="5">
+        <f t="shared" si="11"/>
+        <v>1140</v>
+      </c>
+      <c r="I597" t="s">
+        <v>13</v>
+      </c>
+      <c r="J597" t="s">
+        <v>14</v>
+      </c>
+      <c r="K597">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C598" t="s">
+        <v>20</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598">
+        <v>3500</v>
+      </c>
+      <c r="F598" t="s">
+        <v>12</v>
+      </c>
+      <c r="G598" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H598" s="5">
+        <f t="shared" si="11"/>
+        <v>1330</v>
+      </c>
+      <c r="I598" t="s">
+        <v>13</v>
+      </c>
+      <c r="J598" t="s">
+        <v>21</v>
+      </c>
+      <c r="K598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599" s="1">
+        <v>43462</v>
+      </c>
+      <c r="C599" t="s">
+        <v>48</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>2000</v>
+      </c>
+      <c r="F599" t="s">
+        <v>12</v>
+      </c>
+      <c r="G599" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H599" s="5">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+      <c r="I599" t="s">
+        <v>49</v>
+      </c>
+      <c r="J599" t="s">
+        <v>50</v>
+      </c>
+      <c r="K599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600" s="1">
+        <v>43468</v>
+      </c>
+      <c r="C600" t="s">
+        <v>15</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+      <c r="E600">
+        <v>7000</v>
+      </c>
+      <c r="F600" t="s">
+        <v>12</v>
+      </c>
+      <c r="G600" s="5">
+        <v>2</v>
+      </c>
+      <c r="H600" s="5">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="I600" t="s">
+        <v>13</v>
+      </c>
+      <c r="J600" t="s">
+        <v>14</v>
+      </c>
+      <c r="K600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601" s="1">
+        <v>43483</v>
+      </c>
+      <c r="C601" t="s">
+        <v>15</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>9000</v>
+      </c>
+      <c r="F601" t="s">
+        <v>12</v>
+      </c>
+      <c r="G601" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H601" s="5">
+        <f t="shared" si="11"/>
+        <v>3420</v>
+      </c>
+      <c r="I601" t="s">
+        <v>13</v>
+      </c>
+      <c r="J601" t="s">
+        <v>14</v>
+      </c>
+      <c r="K601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C602" t="s">
+        <v>16</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>12000</v>
+      </c>
+      <c r="F602" t="s">
+        <v>12</v>
+      </c>
+      <c r="G602" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H602" s="5">
+        <f t="shared" si="11"/>
+        <v>4560</v>
+      </c>
+      <c r="I602" t="s">
+        <v>13</v>
+      </c>
+      <c r="J602" t="s">
+        <v>14</v>
+      </c>
+      <c r="K602">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603" s="1">
+        <v>43498</v>
+      </c>
+      <c r="C603" t="s">
+        <v>16</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>3000</v>
+      </c>
+      <c r="F603" t="s">
+        <v>12</v>
+      </c>
+      <c r="G603" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H603" s="5">
+        <f t="shared" si="11"/>
+        <v>1140</v>
+      </c>
+      <c r="I603" t="s">
+        <v>13</v>
+      </c>
+      <c r="J603" t="s">
+        <v>14</v>
+      </c>
+      <c r="K603">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C604" t="s">
+        <v>51</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>40000</v>
+      </c>
+      <c r="F604" t="s">
+        <v>12</v>
+      </c>
+      <c r="G604" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H604" s="5">
+        <f t="shared" si="11"/>
+        <v>15200</v>
+      </c>
+      <c r="I604" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J604" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K604">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605" s="1">
+        <v>43511</v>
+      </c>
+      <c r="C605" t="s">
+        <v>15</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>8000</v>
+      </c>
+      <c r="F605" t="s">
+        <v>12</v>
+      </c>
+      <c r="G605" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H605" s="5">
+        <f t="shared" si="11"/>
+        <v>3040</v>
+      </c>
+      <c r="I605" t="s">
+        <v>13</v>
+      </c>
+      <c r="J605" t="s">
+        <v>14</v>
+      </c>
+      <c r="K605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="B606" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C606" t="s">
+        <v>15</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1000</v>
+      </c>
+      <c r="F606" t="s">
+        <v>12</v>
+      </c>
+      <c r="G606" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H606" s="5">
+        <f t="shared" si="11"/>
+        <v>380</v>
+      </c>
+      <c r="I606" t="s">
+        <v>13</v>
+      </c>
+      <c r="J606" t="s">
+        <v>14</v>
+      </c>
+      <c r="K606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="B607" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C607" t="s">
+        <v>15</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>2000</v>
+      </c>
+      <c r="F607" t="s">
+        <v>12</v>
+      </c>
+      <c r="G607" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H607" s="5">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+      <c r="I607" t="s">
+        <v>13</v>
+      </c>
+      <c r="J607" t="s">
+        <v>14</v>
+      </c>
+      <c r="K607">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C608" t="s">
+        <v>15</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>6000</v>
+      </c>
+      <c r="F608" t="s">
+        <v>12</v>
+      </c>
+      <c r="G608" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H608" s="5">
+        <f t="shared" si="11"/>
+        <v>2280</v>
+      </c>
+      <c r="I608" t="s">
+        <v>13</v>
+      </c>
+      <c r="J608" t="s">
+        <v>14</v>
+      </c>
+      <c r="K608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C609" t="s">
+        <v>54</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>18000</v>
+      </c>
+      <c r="F609" t="s">
+        <v>12</v>
+      </c>
+      <c r="G609" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H609" s="5">
+        <f t="shared" si="11"/>
+        <v>6840</v>
+      </c>
+      <c r="I609" t="s">
+        <v>13</v>
+      </c>
+      <c r="J609" t="s">
+        <v>21</v>
+      </c>
+      <c r="K609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610" s="1">
+        <v>43529</v>
+      </c>
+      <c r="C610" t="s">
+        <v>11</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>40000</v>
+      </c>
+      <c r="F610" t="s">
+        <v>12</v>
+      </c>
+      <c r="G610" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H610" s="5">
+        <f t="shared" si="11"/>
+        <v>15200</v>
+      </c>
+      <c r="I610" t="s">
+        <v>13</v>
+      </c>
+      <c r="J610" t="s">
+        <v>14</v>
+      </c>
+      <c r="K610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611" s="1">
+        <v>43533</v>
+      </c>
+      <c r="C611" t="s">
+        <v>55</v>
+      </c>
+      <c r="D611">
+        <v>4</v>
+      </c>
+      <c r="E611">
+        <v>50000</v>
+      </c>
+      <c r="F611" t="s">
+        <v>12</v>
+      </c>
+      <c r="G611" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H611" s="5">
+        <f t="shared" si="11"/>
+        <v>20000</v>
+      </c>
+      <c r="I611" t="s">
+        <v>25</v>
+      </c>
+      <c r="J611" t="s">
+        <v>26</v>
+      </c>
+      <c r="K611">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612" s="1">
+        <v>43536</v>
+      </c>
+      <c r="C612" t="s">
+        <v>15</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>1000</v>
+      </c>
+      <c r="F612" t="s">
+        <v>12</v>
+      </c>
+      <c r="G612" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H612" s="5">
+        <f t="shared" ref="H612:H613" si="12">E612*G612</f>
+        <v>380</v>
+      </c>
+      <c r="I612" t="s">
+        <v>13</v>
+      </c>
+      <c r="J612" t="s">
+        <v>14</v>
+      </c>
+      <c r="K612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613" s="1">
+        <v>43537</v>
+      </c>
+      <c r="C613" t="s">
+        <v>15</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613">
+        <v>2000</v>
+      </c>
+      <c r="F613" t="s">
+        <v>12</v>
+      </c>
+      <c r="G613" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H613" s="5">
+        <f t="shared" si="12"/>
+        <v>760</v>
+      </c>
+      <c r="I613" t="s">
+        <v>13</v>
+      </c>
+      <c r="J613" t="s">
+        <v>14</v>
+      </c>
+      <c r="K613">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
